--- a/outputs-r202/f__RUG033_train.xlsx
+++ b/outputs-r202/f__RUG033_train.xlsx
@@ -531,7 +531,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_16.fasta</t>
+          <t>GB_GCA_900314665.1_14.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -549,7 +549,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_18.fasta</t>
+          <t>GB_GCA_900314665.1_17.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -567,7 +567,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_7.fasta</t>
+          <t>GB_GCA_900314665.1_3.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_8.fasta</t>
+          <t>GB_GCA_900314665.1_6.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -603,7 +603,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_0.fasta</t>
+          <t>GB_GCA_900314665.1_1.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -621,7 +621,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_10.fasta</t>
+          <t>GB_GCA_900314665.1_15.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -639,7 +639,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_11.fasta</t>
+          <t>GB_GCA_900314665.1_4.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -657,7 +657,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_19.fasta</t>
+          <t>GB_GCA_900314665.1_5.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -747,7 +747,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_1.fasta</t>
+          <t>GB_GCA_900314665.1_0.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -765,7 +765,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_15.fasta</t>
+          <t>GB_GCA_900314665.1_10.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -783,7 +783,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_4.fasta</t>
+          <t>GB_GCA_900314665.1_11.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -801,7 +801,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_5.fasta</t>
+          <t>GB_GCA_900314665.1_19.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -819,7 +819,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_14.fasta</t>
+          <t>GB_GCA_900314665.1_16.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -837,7 +837,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_17.fasta</t>
+          <t>GB_GCA_900314665.1_18.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -855,7 +855,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_3.fasta</t>
+          <t>GB_GCA_900314665.1_7.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -873,7 +873,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>GB_GCA_900314665.1_6.fasta</t>
+          <t>GB_GCA_900314665.1_8.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
